--- a/output/inference_results/test_sheets/batch_003/test_sheet (33).xlsx
+++ b/output/inference_results/test_sheets/batch_003/test_sheet (33).xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>白细胞数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>109/L3.5-9.5</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>109/L3.5-9.5</t>
+          <t>3.5-9.5</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>红细胞数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -493,12 +493,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1012/</t>
+          <t>10^12/L</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.8--5.1</t>
+          <t>3.8-5.1</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>103.00</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>115--150</t>
+          <t>115-150</t>
         </is>
       </c>
     </row>
@@ -542,13 +542,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>34.50</t>
+          <t>34.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35--45</t>
+          <t>35-45</t>
         </is>
       </c>
     </row>
@@ -565,17 +565,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>81.00</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kfl</t>
+          <t>fL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82--100</t>
+          <t>82-100</t>
         </is>
       </c>
     </row>
@@ -592,17 +592,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24.20</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>√√pg</t>
+          <t>pg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27--34</t>
+          <t>27-34</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>316--354</t>
+          <t>316-354</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>血小板数</t>
+          <t>血小板计数</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10^9/L125--350</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10^9/L125--350</t>
+          <t>125-350</t>
         </is>
       </c>
     </row>
@@ -668,18 +668,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>红细胞分布宽度CV</t>
+          <t>红细胞分布宽度</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11.5--14.5</t>
+          <t>11.5-14.5</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>血小板体积分布宽度</t>
+          <t>血小板分布宽度</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11.70</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9--17</t>
+          <t>9-17</t>
         </is>
       </c>
     </row>
@@ -723,17 +723,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>fL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6--11.5</t>
+          <t>6-11.5</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.101--0.36</t>
+          <t>0.101-0.36</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10~9/L1.8--6.3</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10~9/L1.8--6.3</t>
+          <t>1.8-6.3</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10^9/L1.1-3.2</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10^9/L1.1-3.2</t>
+          <t>1.1-3.2</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>109/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.02--0.52</t>
+          <t>0.02-0.52</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>109/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0--0.06</t>
+          <t>0-0.06</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中性粒细胞百分比</t>
+          <t>中性粒细胞百分率</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -918,19 +918,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>40--75</t>
+          <t>40-75</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>YMPH9</t>
+          <t>YMPH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>淋巴细胞百分比</t>
+          <t>淋巴细胞百分率</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -941,7 +941,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>20--50</t>
+          <t>20-50</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>单核细胞百分比</t>
+          <t>单核细胞百分率</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -964,7 +964,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1--10</t>
+          <t>1-10</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞百分比</t>
+          <t>嗜酸性粒细胞百分率</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -987,7 +987,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.4--8</t>
+          <t>0.4-8</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>嗜碱性粒细胞百分比</t>
+          <t>嗜碱性粒细胞百分率</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0--1</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
@@ -1026,14 +1026,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>大血小板比率</t>
+          <t>大型血小板比率</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17.5--42.3</t>
+          <t>17.5-42.3</t>
         </is>
       </c>
     </row>
@@ -1045,18 +1045,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>红细胞体积分布宽度-SD</t>
+          <t>红细胞分布宽度</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>↑%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>38.2--49.2</t>
+          <t>38.2-49.2</t>
         </is>
       </c>
     </row>
